--- a/input/input_usuk/MISO2_BuildingsMultiplier_v1.xlsx
+++ b/input/input_usuk/MISO2_BuildingsMultiplier_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benedikt/Documents/GitHub/MISO2/input/selected_countries/subset_config_usuk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jstreeck\Documents\GitHub\MISO2\input\input_usuk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBE75A9-ABCC-EE46-BCCB-60DFAA645327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A78F13-9EB0-4641-B8B2-9D3FD26599DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="760" windowWidth="30200" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -751,16 +751,16 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,7 +771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -785,7 +785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -799,7 +799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -813,7 +813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -827,7 +827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -844,7 +844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -858,7 +858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -872,7 +872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -886,7 +886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -900,7 +900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -914,7 +914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -928,7 +928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -942,7 +942,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -956,7 +956,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -970,37 +970,37 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>55</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>61</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>66</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E26" s="13" t="s">
         <v>71</v>
       </c>
@@ -1123,12 +1123,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G27" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E28" s="11" t="s">
         <v>1</v>
       </c>
@@ -1144,9 +1144,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>74</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>0.246882793003986</v>
       </c>
     </row>
-    <row r="9" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>0.152457534823387</v>
       </c>
     </row>
-    <row r="11" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -14390,7 +14390,7 @@
         <v>0.25896925939808801</v>
       </c>
     </row>
-    <row r="23" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -15594,7 +15594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -16798,7 +16798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -18002,7 +18002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -18604,7 +18604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -19206,7 +19206,7 @@
         <v>0.246882793003986</v>
       </c>
     </row>
-    <row r="31" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -19808,7 +19808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -20410,7 +20410,7 @@
         <v>0.152457534823387</v>
       </c>
     </row>
-    <row r="33" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -21012,7 +21012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -21614,7 +21614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -22216,7 +22216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -22818,7 +22818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -23420,7 +23420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -24624,7 +24624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -25226,7 +25226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -26430,7 +26430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -27634,7 +27634,7 @@
         <v>0.25896925939808801</v>
       </c>
     </row>
-    <row r="45" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -28247,9 +28247,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>74</v>
       </c>
@@ -28851,7 +28851,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -29453,7 +29453,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -30055,7 +30055,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -30657,7 +30657,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -31259,7 +31259,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -31861,7 +31861,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -32463,7 +32463,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -33065,7 +33065,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -33667,7 +33667,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -34269,7 +34269,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -34871,7 +34871,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -35473,7 +35473,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -36075,7 +36075,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -36677,7 +36677,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -37279,7 +37279,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -37881,7 +37881,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -38483,7 +38483,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -39085,7 +39085,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -39687,7 +39687,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -40289,7 +40289,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -40891,7 +40891,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -41493,7 +41493,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -42095,7 +42095,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -42697,7 +42697,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -43299,7 +43299,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -43901,7 +43901,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -44503,7 +44503,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -45105,7 +45105,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -45707,7 +45707,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -46309,7 +46309,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -46911,7 +46911,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -47513,7 +47513,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -48115,7 +48115,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -48717,7 +48717,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -49319,7 +49319,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -49921,7 +49921,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -50523,7 +50523,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -51125,7 +51125,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -51727,7 +51727,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -52329,7 +52329,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -52931,7 +52931,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -53533,7 +53533,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -54135,7 +54135,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -54737,7 +54737,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -55350,9 +55350,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>74</v>
       </c>
@@ -55954,7 +55954,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -56556,7 +56556,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -57158,7 +57158,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -57760,7 +57760,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -58362,7 +58362,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -58964,7 +58964,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -59566,7 +59566,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -60168,7 +60168,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -60770,7 +60770,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -61372,7 +61372,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -61974,7 +61974,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -62576,7 +62576,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -63178,7 +63178,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -63780,7 +63780,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -64382,7 +64382,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -64984,7 +64984,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -65586,7 +65586,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -66188,7 +66188,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -66790,7 +66790,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -67392,7 +67392,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -67994,7 +67994,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -68596,7 +68596,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -69198,7 +69198,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -69800,7 +69800,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -70402,7 +70402,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -71004,7 +71004,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -71606,7 +71606,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -72208,7 +72208,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -72810,7 +72810,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -73412,7 +73412,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -74014,7 +74014,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -74616,7 +74616,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -75218,7 +75218,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -75820,7 +75820,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -76422,7 +76422,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -77024,7 +77024,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -77626,7 +77626,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>100</v>
       </c>
@@ -78228,7 +78228,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -78830,7 +78830,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -79432,7 +79432,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -80034,7 +80034,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -80636,7 +80636,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -81238,7 +81238,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -81840,7 +81840,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:200" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:200" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>100</v>
       </c>
